--- a/ExcelToCSVnet8/SrcFolder/테이블_0323_v22.xlsx
+++ b/ExcelToCSVnet8/SrcFolder/테이블_0323_v22.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\project_grid\client\grid_dev\ExcelToCSVnet8\SrcFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\grid_new\client\grid_dev\ExcelToCSVnet8\SrcFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23238B34-F877-4771-8D62-16DC7D4D5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68603AEC-3C80-409C-916E-14CC1A4565E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1815" windowWidth="25365" windowHeight="13065" tabRatio="894" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="894" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigTable" sheetId="18" r:id="rId1"/>
     <sheet name="Localization" sheetId="29" r:id="rId2"/>
-    <sheet name="EnumTable" sheetId="17" r:id="rId3"/>
-    <sheet name="Level" sheetId="36" r:id="rId4"/>
+    <sheet name="ThemeInfo" sheetId="53" r:id="rId3"/>
+    <sheet name="StageMSGroup" sheetId="42" r:id="rId4"/>
+    <sheet name="StageInfo" sheetId="41" r:id="rId5"/>
+    <sheet name="DungeonBoxInfo" sheetId="50" r:id="rId6"/>
+    <sheet name="DungeonItemInfo" sheetId="51" r:id="rId7"/>
+    <sheet name="DropInfo" sheetId="52" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,46 +85,504 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{71F93E8A-D2EF-41B9-A9DF-071BBBFFD34E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설명</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+==== </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>재화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ~ ====
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">생명력
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">결정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+4 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보석</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+5 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>황금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">결정
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">==== </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이템</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ~ ====
+11 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>생명력</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">생산량
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">12 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>결정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> n</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">생산량
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">물고기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">40 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">카드팩
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50 : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카드</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="402">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>desc1</t>
-  </si>
-  <si>
-    <t>desc2</t>
-  </si>
-  <si>
-    <t>desc3</t>
-  </si>
-  <si>
-    <t>is_string</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,290 +618,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boxed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpiderWeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>밑에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거미줄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거미줄만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있음</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>lot_anim_type</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnActive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활성화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비활성화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>됨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>obj_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tanker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>archer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탱커</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>unit_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영혼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,89 +689,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>de</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ios_3166-1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>언어코드</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 비용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StageStartCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rarity_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legendary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -771,19 +878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tuto_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cameraStageMove</t>
-  </si>
-  <si>
-    <t>needTouch</t>
-  </si>
-  <si>
-    <t>cutScene</t>
-  </si>
-  <si>
     <t>DefaultUnit01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,30 +886,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goldReward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attendance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialouge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,14 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태미나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rarity_type_common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,14 +1425,6 @@
   </si>
   <si>
     <t>영혼이 부족해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2189,7 +2243,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adfree</t>
+    <t>nodata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextStageId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSConditionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSConditionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSGroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>FName</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodata</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodata</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fdesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 진입 시 50% 확률로 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellRewardType</t>
+  </si>
+  <si>
+    <t>SellRewardId</t>
+  </si>
+  <si>
+    <t>SellRewardCnt</t>
+  </si>
+  <si>
+    <t>ThemeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpIncreaseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgIncreaseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequireId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map/Theme_1_1</t>
+  </si>
+  <si>
+    <t>Map/Theme_1_2</t>
+  </si>
+  <si>
+    <t>Map/Theme_1_3</t>
+  </si>
+  <si>
+    <t>Map/Theme_1_4</t>
+  </si>
+  <si>
+    <t>Map/Theme_1_5</t>
+  </si>
+  <si>
+    <t>Map/Theme_1_5_BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 액체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찣어진 종이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커다란 뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_item_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeon_item_2</t>
+  </si>
+  <si>
+    <t>dungeon_item_3</t>
+  </si>
+  <si>
+    <t>dungeon_item_4</t>
+  </si>
+  <si>
+    <t>dungeon_item_5</t>
+  </si>
+  <si>
+    <t>IsLastStage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2197,7 +2445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2315,8 +2563,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2332,6 +2594,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2369,12 +2655,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2399,18 +2686,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2429,7 +2710,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2446,13 +2726,95 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 4" xfId="3" xr:uid="{C0326A11-D6B9-4FE9-9390-D247BDF479E8}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2463,10 +2825,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2769,7 +3127,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A19:C20"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2782,240 +3140,240 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="23" t="s">
-        <v>76</v>
+      <c r="A7" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>75</v>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
         <v>300</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <v>2001</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>103</v>
+      <c r="D12" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="2" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+      <c r="C13" s="26">
         <v>3600</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>400</v>
+      <c r="D13" s="25" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
       <c r="A14" s="2" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="2" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="30">
+        <v>3</v>
+      </c>
+      <c r="C15" s="27">
         <v>1800</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>390</v>
+      <c r="D15" s="11" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5">
       <c r="A16" s="2" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="26">
         <v>10</v>
       </c>
-      <c r="C16" s="29">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>392</v>
+      <c r="D16" s="11" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="2" t="s">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>21600</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>402</v>
+      <c r="D17" s="11" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
@@ -3032,7 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -3045,1311 +3403,1311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>47</v>
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>51</v>
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>112</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>116</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>275</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>274</v>
+        <v>210</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1">
       <c r="A87" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A89" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C88" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A89" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="C93" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="C94" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="C95" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>258</v>
       </c>
       <c r="C96" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="C97" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C99" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="C101" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="C105" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="B106" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="B108" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.5">
       <c r="A109" t="s">
-        <v>346</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>411</v>
+        <v>283</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>398</v>
+        <v>330</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="B111" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>403</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>395</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>396</v>
+        <v>332</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>406</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.5">
       <c r="A114" t="s">
-        <v>407</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>408</v>
+        <v>344</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4361,938 +4719,2919 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F577EB6-2C77-4DEA-A76F-D93C00CDA54E}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5">
-      <c r="A26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="4">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="16.5">
-      <c r="A30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="4">
-        <v>7</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.5">
-      <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="4">
-        <v>4</v>
+      <c r="B5" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41226151-8EC6-4DA6-BAB5-5ECB1A764BE8}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5">
+        <v>17</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D29" s="5">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D30" s="5">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>20</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D34" s="5">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>21</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D35" s="5">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D37" s="5">
+        <v>5</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D38" s="5">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D39" s="5">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D41" s="5">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5">
+        <v>24</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D42" s="5">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5">
+        <v>25</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D43" s="5">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5">
+        <v>25</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D44" s="5">
+        <v>5</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="B45" s="5">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1001</v>
+      </c>
+      <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D46" s="5">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D47" s="5">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D48" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>500</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>75</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5">
-        <v>95</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5">
-        <v>115</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5">
-        <v>135</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5">
-        <v>155</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5">
-        <v>175</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
-        <v>195</v>
-      </c>
-      <c r="D18" s="5">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5">
-        <v>215</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5">
-        <v>235</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
-        <v>255</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5">
-        <v>275</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5">
-        <v>295</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5">
+        <v>28</v>
+      </c>
+      <c r="C49" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FF6EC9-6F6D-4AA3-A967-23A89E0E91B4}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="62.42578125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="25.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>31.999999999999972</v>
+      </c>
+      <c r="J6" s="6">
+        <v>63.999999999999943</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>50</v>
+      </c>
+      <c r="J7" s="6">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>72</v>
+      </c>
+      <c r="J8" s="6">
+        <v>144</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>92</v>
+      </c>
+      <c r="J9" s="6">
+        <v>184</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>116</v>
+      </c>
+      <c r="J10" s="6">
+        <v>232</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>142</v>
+      </c>
+      <c r="J11" s="6">
+        <v>250</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>170</v>
+      </c>
+      <c r="J12" s="6">
+        <v>300</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>11</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>250</v>
+      </c>
+      <c r="J13" s="5">
+        <v>350</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>248</v>
+      </c>
+      <c r="J14" s="6">
+        <v>384</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>278</v>
+      </c>
+      <c r="J15" s="6">
+        <v>424</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>308</v>
+      </c>
+      <c r="J16" s="6">
+        <v>464</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>338</v>
+      </c>
+      <c r="J17" s="6">
+        <v>504</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>369</v>
+      </c>
+      <c r="J18" s="6">
+        <v>545</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6">
+        <v>17</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>399</v>
+      </c>
+      <c r="J19" s="6">
+        <v>585</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>429</v>
+      </c>
+      <c r="J20" s="5">
+        <v>625</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>459</v>
+      </c>
+      <c r="J21" s="6">
+        <v>666</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>490</v>
+      </c>
+      <c r="J22" s="6">
+        <v>706</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>21</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>550</v>
+      </c>
+      <c r="J23" s="6">
+        <v>786</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>580</v>
+      </c>
+      <c r="J24" s="6">
+        <v>827</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>22</v>
+      </c>
+      <c r="G25" s="4">
+        <v>23</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>610</v>
+      </c>
+      <c r="J25" s="6">
+        <v>867</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6">
+        <v>24</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>641</v>
+      </c>
+      <c r="J26" s="5">
+        <v>907</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6">
+        <v>25</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>671</v>
+      </c>
+      <c r="J27" s="6">
+        <v>948</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4">
+        <v>26</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>701</v>
+      </c>
+      <c r="J28" s="6">
+        <v>988</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4">
+        <v>27</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
+        <v>731</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1028</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>27</v>
+      </c>
+      <c r="G30" s="6">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>761</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1068</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>28</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>792</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1109</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EA43E6-D5D0-4D7E-9E96-A269A45128C4}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="5">
+        <v>20250203</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="5">
+        <v>20250203</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="5">
+        <v>20250203</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:E3">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="all">
+      <formula>NOT(ISERROR(SEARCH("all",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="nodata">
+      <formula>NOT(ISERROR(SEARCH("nodata",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24005E96-D843-4F08-8CBD-736754DF69DE}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="32"/>
+    <col min="5" max="6" width="25.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B4" s="35">
+        <v>40001</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="32">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B5" s="35">
+        <v>40002</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B6" s="35">
+        <v>40003</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="32">
+        <v>2</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B7" s="35">
+        <v>40004</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="32">
+        <v>2</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B8" s="35">
+        <v>40005</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="32">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:I3">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="all">
+      <formula>NOT(ISERROR(SEARCH("all",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="nodata">
+      <formula>NOT(ISERROR(SEARCH("nodata",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AB3F3C-2C9C-44B3-A33F-D3E76E5FC592}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="35" customWidth="1"/>
+    <col min="4" max="6" width="16.28515625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="35"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="35">
+        <v>4</v>
+      </c>
+      <c r="E4" s="35">
+        <v>40001</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3</v>
+      </c>
+      <c r="G4" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1001</v>
+      </c>
+      <c r="D5" s="35">
+        <v>4</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B6" s="35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="35">
+        <v>101</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>10</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B7" s="35">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="35">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35">
+        <v>40002</v>
+      </c>
+      <c r="F7" s="35">
+        <v>3</v>
+      </c>
+      <c r="G7" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B8" s="35">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="35">
+        <v>4</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B9" s="35">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="35">
+        <v>101</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B10" s="35">
+        <v>7</v>
+      </c>
+      <c r="C10" s="35">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="35">
+        <v>4</v>
+      </c>
+      <c r="E10" s="35">
+        <v>40003</v>
+      </c>
+      <c r="F10" s="35">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B11" s="35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1003</v>
+      </c>
+      <c r="D11" s="35">
+        <v>4</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B12" s="35">
+        <v>9</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1003</v>
+      </c>
+      <c r="D12" s="35">
+        <v>101</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>10</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B13" s="35">
+        <v>10</v>
+      </c>
+      <c r="C13" s="35">
+        <v>1004</v>
+      </c>
+      <c r="D13" s="35">
+        <v>4</v>
+      </c>
+      <c r="E13" s="35">
+        <v>40004</v>
+      </c>
+      <c r="F13" s="35">
+        <v>3</v>
+      </c>
+      <c r="G13" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B14" s="35">
+        <v>11</v>
+      </c>
+      <c r="C14" s="35">
+        <v>1004</v>
+      </c>
+      <c r="D14" s="35">
+        <v>4</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B15" s="35">
+        <v>12</v>
+      </c>
+      <c r="C15" s="35">
+        <v>1004</v>
+      </c>
+      <c r="D15" s="35">
+        <v>101</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>10</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B16" s="35">
+        <v>13</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="35">
+        <v>4</v>
+      </c>
+      <c r="E16" s="35">
+        <v>40005</v>
+      </c>
+      <c r="F16" s="35">
+        <v>3</v>
+      </c>
+      <c r="G16" s="35">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B17" s="35">
+        <v>14</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2001</v>
+      </c>
+      <c r="D17" s="35">
+        <v>4</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>7000</v>
+      </c>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="35">
+        <v>20250203</v>
+      </c>
+      <c r="B18" s="35">
+        <v>15</v>
+      </c>
+      <c r="C18" s="35">
+        <v>1</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:H3">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="all">
+      <formula>NOT(ISERROR(SEARCH("all",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="nodata">
+      <formula>NOT(ISERROR(SEARCH("nodata",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>